--- a/pred_ohlcv/54_21/2019-10-31 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>41472.16270000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>38654.74320000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>38125.05130000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>41170.41210000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>39613.14860000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37866.30860000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>38418.23960000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>24398.60830000003</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>25098.60830000003</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>23839.93330000003</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>23949.46490000002</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>23636.76260000002</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>23934.17380000002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>25124.17380000002</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>24877.97380000002</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>25147.97380000002</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>24472.96990000002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>23972.97000000002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>23897.71880000002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24010.52280000002</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24477.55550000002</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>25178.89260000002</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24893.78260000002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>24861.20960000002</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>24308.89590000002</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>24074.00270000003</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>24041.11320000003</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>23800.56350000003</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>22865.08070000002</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22301.30390000002</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>21737.69630000003</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>21983.56750000003</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>21946.48750000002</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22192.35850000002</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>25140.68900000002</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>25649.98910000002</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25612.89410000002</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>25959.82410000002</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26294.82410000002</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>23769.39400000002</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>24855.16800000002</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>24564.23950000002</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>24565.23950000002</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>25063.22070000002</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>25627.22070000002</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>24475.04070000002</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>25075.04070000002</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25122.70510000002</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25894.12780000002</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>25384.12780000002</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>24986.62780000002</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>25414.54480000002</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>25675.54100000002</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>25708.41760000002</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>26008.41760000002</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>27133.41760000002</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>27211.38760000002</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>29121.13970000003</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>29122.13970000003</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>29502.24790000002</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>29687.83300000002</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29688.83300000002</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>29662.83300000002</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>29188.83300000002</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>29189.83300000002</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>30505.01390000002</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>30153.37100000002</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>31404.93590000003</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>31412.19000000002</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>31422.19000000002</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31374.74820000002</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>31649.95580000003</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>31634.21450000002</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>31280.96590000002</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>31296.01840000003</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>32201.57440000003</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>31141.25410000003</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>32001.06100000003</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>31570.66990000003</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>31138.31800000002</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>30920.98500000003</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>31420.98500000003</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29642.74150000003</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>31033.84650000003</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>31813.80640000003</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>31562.67310000003</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>32240.87100000002</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>32248.12510000002</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>31919.40110000002</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>32435.34110000002</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>40545.64799109892</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>29383.80669109892</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>29407.80669109892</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>29352.95309109892</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>14350.39359109892</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>15148.23839109892</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15132.18799109892</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15011.78979109892</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>14256.88909109892</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13394.69779109892</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>12817.15609109892</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>12819.15609109892</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17726.93479109892</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>16912.94329109892</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>16917.94329109892</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>16209.99329109892</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>15893.65009109892</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 WTC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>41170.41210000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>39613.14860000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>38101.99560000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>38161.31960000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>38101.31960000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>37800.85090000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>37725.73960000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>37879.21560000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>39012.13880000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>40730.70490000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31405.08620000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>31452.95350000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>24327.98020000002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>24398.60830000003</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>25098.60830000003</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>23839.93330000003</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>23949.46490000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>23636.76260000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>23934.17380000002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>25124.17380000002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>24877.97380000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>25147.97380000002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>24472.96990000002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>23972.97000000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>23897.71880000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24010.52280000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24477.55550000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>25003.89260000002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>25178.89260000002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>24893.78260000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>24861.20960000002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>24308.89590000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>24074.00270000003</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>24041.11320000003</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>23800.56350000003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>22860.86280000002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>22865.08070000002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22301.30390000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>21737.69630000003</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>21983.56750000003</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>21946.48750000002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22192.35850000002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>25140.68900000002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>25649.98910000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25612.89410000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>25959.82410000002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26294.82410000002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>23769.39400000002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>24855.16800000002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>24562.10600000002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>24564.23950000002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>24565.23950000002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>25063.22070000002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>25627.22070000002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>24475.04070000002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>25075.04070000002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25122.70510000002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25894.12780000002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>25384.12780000002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>24986.62780000002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>25414.54480000002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>24950.35350000002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>25750.35350000002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>25675.54100000002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>25708.41760000002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>26008.41760000002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>27133.41760000002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>27211.38760000002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>27212.38760000002</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>28999.18970000002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>29121.13970000003</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>29122.13970000003</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>29502.24790000002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>29687.83300000002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29688.83300000002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>29662.83300000002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>29188.83300000002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>29189.83300000002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>30505.01390000002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>30153.37100000002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>31404.93590000003</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>31412.19000000002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>31422.19000000002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31374.74820000002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>31649.95580000003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>31634.21450000002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31597.53970000002</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>31280.96590000002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>31296.01840000003</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32493.63500000003</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>32201.57440000003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>31141.25410000003</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>32001.06100000003</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>31570.66990000003</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>31138.31800000002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>30920.98500000003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>31420.98500000003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29642.74150000003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>29611.30140000003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>31033.84650000003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>31813.80640000003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>31562.67310000003</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>32240.87100000002</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>32248.12510000002</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>31919.40110000002</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>32435.34110000002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>40545.64799109892</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>40540.70049109892</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>41326.56649109892</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>41448.13649109892</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>41336.53649109892</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>41027.76549109892</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>39852.94009109892</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>37887.94009109892</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>37886.94009109892</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>37891.94009109892</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>34197.80019109892</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>33696.95019109892</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>33155.95019109892</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15132.18799109892</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15011.78979109892</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>15409.37979109892</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>13669.28969109892</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>14256.88909109892</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17726.93479109892</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>16912.94329109892</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>16917.94329109892</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>16209.99329109892</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>15931.18959109892</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>15893.65009109892</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>16037.19009109892</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
